--- a/data/trans_bre/P10_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P10_2-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,56%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 7,44</t>
+          <t>-6,78; 14,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 7,36</t>
+          <t>-6,82; 16,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 8,35</t>
+          <t>-6,79; 18,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 8,12</t>
+          <t>-6,89; 19,95</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>3,74%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 26,13</t>
+          <t>-14,35; 35,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 24,57</t>
+          <t>-14,53; 37,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 39,49</t>
+          <t>-14,42; 63,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 36,62</t>
+          <t>-14,83; 68,84</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,9</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>6,15%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 24,52</t>
+          <t>-1,15; 13,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 25,74</t>
+          <t>0,25; 14,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 33,33</t>
+          <t>-1,19; 15,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 35,5</t>
+          <t>0,26; 16,81</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,52%</t>
+          <t>2,57%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 5,39</t>
+          <t>-2,54; 12,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 3,65</t>
+          <t>-3,54; 9,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 6,09</t>
+          <t>-2,67; 14,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 4,07</t>
+          <t>-3,66; 11,42</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>10,4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>11,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>15,6%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 15,67</t>
+          <t>-2,36; 27,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 18,73</t>
+          <t>-1,12; 31,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 21,76</t>
+          <t>-2,72; 42,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 28,36</t>
+          <t>-1,21; 52,13</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-14,48</t>
+          <t>-17,29</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-14,3</t>
+          <t>-16,63</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-20,07%</t>
+          <t>-22,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-19,69%</t>
+          <t>-21,61%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,96; -0,54</t>
+          <t>-36,95; 1,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,81; 0,48</t>
+          <t>-36,0; 2,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,72; -0,62</t>
+          <t>-44,74; 2,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,2; 0,15</t>
+          <t>-44,01; 3,33</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,5%</t>
+          <t>3,53%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 5,41</t>
+          <t>-2,48; 10,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 5,17</t>
+          <t>-2,26; 11,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 6,45</t>
+          <t>-2,72; 13,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 6,18</t>
+          <t>-2,46; 14,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P10_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P10_2-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,21</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,01%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,37%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.884998954867989</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.253706791508159</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.02012798982101274</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.02403642324688634</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,78; 14,68</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,82; 16,17</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,79; 18,15</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-6,89; 19,95</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.776675553816201</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.990441906299173</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.0679102232082671</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.06015637392212309</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.68245463502732</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>15.51318985027144</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.1814868933652511</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.1865014170987158</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,56</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,2</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,97%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-14,35; 35,76</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-14,53; 37,73</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-14,42; 63,32</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-14,83; 68,84</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.559820146218938</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.8977394747727407</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.02972708348535327</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.01024488338474291</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,61</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,73</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,94%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,15%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-14.34609422901703</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-14.96833626999804</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.144172283358542</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1517702193213885</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 13,1</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 14,33</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,19; 15,26</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 16,81</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>35.76289723979803</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>32.42006389053284</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.6331957005499593</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.5619213437007167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,78</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,38</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,15%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,57%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.608698230954245</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.981162790281179</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.04938406150677487</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.05298649219092774</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,54; 12,04</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,54; 9,92</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 14,39</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 11,42</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.149091267177381</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1367561655936915</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.01185743619141686</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.001063467649106453</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.09626119353698</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>12.893437527961</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.1526046533713524</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.1491316105882544</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>10,4</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>11,84</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>13,4%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>15,6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,36; 27,41</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,12; 31,29</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 42,9</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,21; 52,13</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>3.783973237236771</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.449173570178953</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.04147134024412096</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.02644282948689958</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-17,29</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-16,63</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-22,35%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-21,61%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.53935822000553</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.573980720393878</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.02670990775507627</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.03676211378037332</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-36,95; 1,55</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-36,0; 2,46</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-44,74; 2,46</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-44,01; 3,33</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>12.03538917921731</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.12501596431767</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1438517028399536</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.117174545129444</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,89</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,33%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>3,53%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>10.40202052364612</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>12.85928017707574</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.1340044491487443</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.1714113996430908</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 10,41</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,26; 11,37</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 13,13</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-2,46; 14,38</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-2.357433974616162</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.6585528423040716</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.027225443177853</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.004604149657261829</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>27.40507344679403</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>33.04940420131143</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.4290189176916382</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.556944528430577</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-17.28500991512678</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-18.58139372225745</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.2235326456232689</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.2346093088180314</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-36.94911049992398</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-37.9469919788602</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.4473867465208451</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.4568331004010313</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>1.548947881651853</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.9450590182134483</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.02455145608736755</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.006161421893632371</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>2.887208299111232</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>2.840795104478355</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.03326062603841057</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.03249959515741136</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-2.475996634405016</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-2.425867867592635</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.02718946697581059</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.02621084802301385</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>10.4124846961906</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>10.68815823019859</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.1312718850326103</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.1328221763130333</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
